--- a/ResultsV2.xlsx
+++ b/ResultsV2.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -35,8 +35,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffff00"/>
-        <bgColor rgb="00ffff00"/>
+        <fgColor rgb="0000A0FF"/>
+        <bgColor rgb="0000A0FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -52,9 +64,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -420,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E5:Q15"/>
+  <dimension ref="E1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,88 +447,959 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total equipment cost: 8676086.96556</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Centrifugation</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Falling film evaporation</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>Phoshporic acid</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>Deionized water</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>Vacuum flash evaporation</t>
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="n"/>
+      <c r="AB6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>523.908</v>
+      </c>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>523.908</v>
+      </c>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="Y7" s="4" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>523.908</v>
+      </c>
+      <c r="AA7" s="4" t="n"/>
+      <c r="AB7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>23.1942</v>
+      </c>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>11.5971</v>
+      </c>
+      <c r="V8" s="4" t="n"/>
+      <c r="W8" s="4" t="n"/>
+      <c r="Y8" s="4" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.231942</v>
+      </c>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>8.568</v>
+      </c>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="n"/>
+      <c r="W9" s="4" t="n"/>
+      <c r="Y9" s="4" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="4" t="n"/>
+    </row>
     <row r="10">
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="4" t="n"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="Y10" s="4" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="4" t="n"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="Y11" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Decantation</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>Vaccuum distillation</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>Sulfuric acid</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>Magnesol adsorbent</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y13" s="2" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="n"/>
+      <c r="H14" s="4" t="n"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>523.908</v>
+      </c>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>231.942</v>
+      </c>
+      <c r="G16" s="4" t="n"/>
+      <c r="H16" s="4" t="n"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>8.568</v>
+      </c>
+      <c r="G17" s="4" t="n"/>
+      <c r="H17" s="4" t="n"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="4" t="n"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="n"/>
+      <c r="H19" s="4" t="n"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="O21" s="3" t="inlineStr">
         <is>
           <t>Hydrochloric acid</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Ion exchanger</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Y21" s="2" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="Q22" s="4" t="n"/>
+      <c r="R22" s="4" t="n"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Species i</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Flow [kg/h]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>523.908</v>
+      </c>
+      <c r="Q23" s="4" t="n"/>
+      <c r="R23" s="4" t="n"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>23.1942</v>
+      </c>
+      <c r="Q24" s="4" t="n"/>
+      <c r="R24" s="4" t="n"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>8.568</v>
+      </c>
+      <c r="Q25" s="4" t="n"/>
+      <c r="R25" s="4" t="n"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="Q26" s="4" t="n"/>
+      <c r="R26" s="4" t="n"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>NaOH</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4" t="n"/>
+      <c r="R27" s="4" t="n"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y21:AB21"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>